--- a/reverseprimer-v3_25.xlsx
+++ b/reverseprimer-v3_25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_25" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2305-ACTCGAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCGAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2305-GTCTCGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTCGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2306-AACGAAGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGAAGGAGGTCTCGTGGGCTCGG</t>
+    <t>R2306-TCTGCAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGCAGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2307-GTCAACGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAACGTAGGTCTCGTGGGCTCGG</t>
+    <t>R2307-ACTACTCTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACTCTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2308-TCAACAGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACAGCTCGTCTCGTGGGCTCGG</t>
+    <t>R2308-TAGCTTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTTCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2309-ACAGAAGCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGAAGCTGGTCTCGTGGGCTCGG</t>
+    <t>R2309-TCTTGAGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGAGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2310-TACACCACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACCACCTGTCTCGTGGGCTCGG</t>
+    <t>R2310-AGACGACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACGACCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2311-ACAGTGCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTGCAGTGTCTCGTGGGCTCGG</t>
+    <t>R2311-CAACTACACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTACACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2312-CGTTCATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTCATCTCGTCTCGTGGGCTCGG</t>
+    <t>R2312-TACTCTGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCTGTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2313-TTCTGGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGGAGTTGTCTCGTGGGCTCGG</t>
+    <t>R2313-AGTGAGAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGAGAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2314-AGTCGTAGCA</t>
+    <t>R2314-TCTGACTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGACTGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>R2315-ATGAGGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGGAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>R2316-AGTGCAAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGCAAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R2317-TTCCACGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCACGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R2318-TGAGAGCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGAGCTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R2319-AGTCGTAGCA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATAGTCGTAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>R2315-AACGAGGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGAGGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>R2316-GAACTGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTGACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R2317-TAGAGTCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGTCGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R2318-ACTCGAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCGAGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R2319-AACCATCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCATCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2320-AACACAAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACAAGCAGTCTCGTGGGCTCGG</t>
+    <t>R2320-AGTTGCTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTGCTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2321-GTCGTACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGTACTCAGTCTCGTGGGCTCGG</t>
+    <t>R2321-ATGTCGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2322-AACTGGTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGGTACGGTCTCGTGGGCTCGG</t>
+    <t>R2322-TCTGGTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGGTCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2323-CAAGAGTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGTTGTGTCTCGTGGGCTCGG</t>
+    <t>R2323-GTAGAACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGAACTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2324-CTAGCACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGCACCTTGTCTCGTGGGCTCGG</t>
+    <t>R2324-ACACATGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACATGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2325-CATGCTACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGCTACGAGTCTCGTGGGCTCGG</t>
+    <t>R2325-ACACGTTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACGTTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2326-AGAACAGCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACAGCTGGTCTCGTGGGCTCGG</t>
+    <t>R2326-AGACTAGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTAGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2327-TCTAGCTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGCTCCAGTCTCGTGGGCTCGG</t>
+    <t>R2327-AGGAAGTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAAGTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2328-TCTCCTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCCTCTTGGTCTCGTGGGCTCGG</t>
+    <t>R2328-TCGTAGTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTAGTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2329-TGAAGGTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGGTTGGGTCTCGTGGGCTCGG</t>
+    <t>R2329-ACTGGTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGGTCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2330-TTGACTGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACTGGTCGTCTCGTGGGCTCGG</t>
+    <t>R2330-GTCAACCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAACCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2331-GTAGCACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGCACTCTGTCTCGTGGGCTCGG</t>
+    <t>R2331-ACGTACAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTACAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2332-CAGATCCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGATCCTTGGTCTCGTGGGCTCGG</t>
+    <t>R2332-AACCAGTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAGTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2333-TCAGACATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGACATGGGTCTCGTGGGCTCGG</t>
+    <t>R2333-TCCTCTCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTCTCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2334-TGCATGGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCATGGAGTGTCTCGTGGGCTCGG</t>
+    <t>R2334-CATCGAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCGAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2335-TGATCCTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCCTTCGGTCTCGTGGGCTCGG</t>
+    <t>R2335-ACGAGAACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGAACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2336-TTGGTCCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTCCAGTGTCTCGTGGGCTCGG</t>
+    <t>R2336-ACACTCACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTCACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2337-GTTGGACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGGACAACGTCTCGTGGGCTCGG</t>
+    <t>R2337-TCGACGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGACGTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2338-TCTCACTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCACTTGTGTCTCGTGGGCTCGG</t>
+    <t>R2338-ATCATCGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCATCGTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2339-AAGGAGCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGAGCTTCGTCTCGTGGGCTCGG</t>
+    <t>R2339-GAACGAACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGAACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2340-CAGGTTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGGTTCTGTGTCTCGTGGGCTCGG</t>
+    <t>R2340-TGTTCGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCGTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R2341-TTGAGGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGGTACCGTCTCGTGGGCTCGG</t>
+    <t>R2341-GAGTTGCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTTGCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R2342-GTAGCTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTCAGAGTCTCGTGGGCTCGG</t>
+    <t>R2342-TAGTCGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCGAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R2343-CGAAGACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAAGACTGAGTCTCGTGGGCTCGG</t>
+    <t>R2343-GTGACAAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGACAAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R2344-TGAGTGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTGCTCAGTCTCGTGGGCTCGG</t>
+    <t>R2344-AGGATCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATCACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R2345-CATCCATGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCCATGGAGTCTCGTGGGCTCGG</t>
+    <t>R2345-CCTTGCTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTGCTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R2346-TTCAGCATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAGCATCCGTCTCGTGGGCTCGG</t>
+    <t>R2346-ACGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTGTTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R2347-TAGACCAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACCAGGTGTCTCGTGGGCTCGG</t>
+    <t>R2347-AACTAGGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTAGGTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R2348-AGGACACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGACACCATGTCTCGTGGGCTCGG</t>
+    <t>R2348-AGGTGAAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTGAAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R2349-TGAGACCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGACCAGTGTCTCGTGGGCTCGG</t>
+    <t>R2349-GCTTGTTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGTTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R2350-TCGTACACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTACACAGGTCTCGTGGGCTCGG</t>
+    <t>R2350-GGAGATGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGATGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R2351-AGCACAGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCACAGGATGTCTCGTGGGCTCGG</t>
+    <t>R2351-CGAAGTTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAAGTTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R2352-GAGAGTTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAGTTCAAGTCTCGTGGGCTCGG</t>
+    <t>R2352-CTCAGAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAGAGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R2353-ACGTTCTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTTCTAGTGTCTCGTGGGCTCGG</t>
+    <t>R2353-CGTGATGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGATGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R2354-AGCATCGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCATCGAACGTCTCGTGGGCTCGG</t>
+    <t>R2354-CTGAGAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAGAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R2355-GATCTACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCTACAAGGTCTCGTGGGCTCGG</t>
+    <t>R2355-CGAGTCATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAGTCATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R2356-TGTTCGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCGTACTGTCTCGTGGGCTCGG</t>
+    <t>R2356-AACCTACGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTACGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R2357-CTGAGTTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAGTTCCAGTCTCGTGGGCTCGG</t>
+    <t>R2357-CTACGACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACGACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R2358-TCATGAGGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGAGGACGTCTCGTGGGCTCGG</t>
+    <t>R2358-ATCGAGCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGAGCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R2359-TGTGTTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTTCCAAGTCTCGTGGGCTCGG</t>
+    <t>R2359-ATGTCTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCTGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R2360-GAACGAACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGAACTCGTCTCGTGGGCTCGG</t>
+    <t>R2360-GTAGCATGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCATGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R2361-CATGCTCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGCTCGAAGTCTCGTGGGCTCGG</t>
+    <t>R2361-AGACTAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTAGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R2362-GGAAGTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAAGTCTCAGTCTCGTGGGCTCGG</t>
+    <t>R2362-GATGGACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGGACTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R2363-GTGTCTGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTGTCAGTCTCGTGGGCTCGG</t>
+    <t>R2363-ACATCAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCAGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R2364-TACCACCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCACCACTGTCTCGTGGGCTCGG</t>
+    <t>R2364-AAGTGCAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGCAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R2365-TGACACAACT</t>
+    <t>R2365-GATCACTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCACTCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R2366-GAGTTCTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCTCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R2367-ATCGTGGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTGGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R2368-AGAACTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACTCTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R2369-CATCGTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCGTGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R2370-CGATGATGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATGATGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R2371-GACCTCTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACCTCTTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R2372-TCTGTCATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCATCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R2373-TCTACCTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACCTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R2374-GACAGTACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAGTACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R2375-CAGTGTCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTGTCCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R2376-TGACACAACT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTGACACAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R2366-AACAAGTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAAGTAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R2367-TACACACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACACGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R2368-ATGACCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACCAACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R2369-AAGGATGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGATGGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R2370-CTTCACACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCACACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R2371-AGTCTCTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTCTGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R2372-CCAGTTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAGTTGGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R2373-GAGAAGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAAGACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R2374-CGTGATGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGATGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R2375-ATGTCCATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCCATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R2376-AGTCAGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGAGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R2377-TTCAGACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAGACGTAGTCTCGTGGGCTCGG</t>
+    <t>R2377-AAGACTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACTGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R2378-TAGCACTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCACTACCGTCTCGTGGGCTCGG</t>
+    <t>R2378-ATCTGTCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGTCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R2379-TACCAGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCAGTTCTGTCTCGTGGGCTCGG</t>
+    <t>R2379-GTAGTACGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTACGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R2380-TCCTTCGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCGTGTGTCTCGTGGGCTCGG</t>
+    <t>R2380-ATCTGGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGGATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R2381-AAGAGTCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGTCATCGTCTCGTGGGCTCGG</t>
+    <t>R2381-ACCAACGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAACGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R2382-ACCTACCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTACCTAGGTCTCGTGGGCTCGG</t>
+    <t>R2382-GCATCACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R2383-TGTTGCTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTGCTTCTGTCTCGTGGGCTCGG</t>
+    <t>R2383-TAGTCTTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R2384-ACTGCTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGCTCTGAGTCTCGTGGGCTCGG</t>
+    <t>R2384-TAGACGTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACGTAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R2385-GACACTTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACACTTCCTGTCTCGTGGGCTCGG</t>
+    <t>R2385-TACTTCCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTTCCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R2386-GTCTTCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTTCAACCGTCTCGTGGGCTCGG</t>
+    <t>R2386-ATGCTGTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTGTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R2387-ACTTGGATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTGGATCAGTCTCGTGGGCTCGG</t>
+    <t>R2387-TAGCAGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R2388-GTACTTGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTTGTGCGTCTCGTGGGCTCGG</t>
+    <t>R2388-GTCTACTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTACTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R2389-GCTGATCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGATCTAGGTCTCGTGGGCTCGG</t>
+    <t>R2389-TCCAGTTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGTTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2390-ACATGAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R2390-GATGAACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGAACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2391-AGTGGATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGGATCTGGTCTCGTGGGCTCGG</t>
+    <t>R2391-TCTGTAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTAGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2392-ACGTTGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTTGACCTGTCTCGTGGGCTCGG</t>
+    <t>R2392-AAGAGGACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGGACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2393-CAAGCTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGCTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R2393-TCTCAACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAACCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2394-TTGTACCACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTACCACGGTCTCGTGGGCTCGG</t>
+    <t>R2394-AACCAAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2395-AGATGACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGACTTGGTCTCGTGGGCTCGG</t>
+    <t>R2395-GTACCTCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACCTCCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2396-GTGCTACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCTACACTGTCTCGTGGGCTCGG</t>
+    <t>R2396-TCGTGTGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTGTGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2397-CTGTAGACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTAGACCAGTCTCGTGGGCTCGG</t>
+    <t>R2397-TCGTGCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTGCAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2398-AGGTGAAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTGAAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2398-TGAGTCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTCAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2399-CTGCTTCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCTTCTTCGTCTCGTGGGCTCGG</t>
+    <t>R2399-ACTACTTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACTTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2400-TCCATGAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCATGAGCAGTCTCGTGGGCTCGG</t>
+    <t>R2400-GTTGACTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGACTGTTGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
